--- a/ig/ValueSet-age-at-onset.xlsx
+++ b/ig/ValueSet-age-at-onset.xlsx
@@ -96,76 +96,76 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>HP:0003577</t>
+  </si>
+  <si>
+    <t>Congenital onset</t>
+  </si>
+  <si>
+    <t>HP:0030674</t>
+  </si>
+  <si>
+    <t>Antenatal onset</t>
+  </si>
+  <si>
+    <t>HP:0011460</t>
+  </si>
+  <si>
+    <t>Embryonal onset</t>
+  </si>
+  <si>
+    <t>HP:0011461</t>
+  </si>
+  <si>
+    <t>Fetal onset</t>
+  </si>
+  <si>
+    <t>HP:0003623</t>
+  </si>
+  <si>
+    <t>Neonatal onset</t>
+  </si>
+  <si>
+    <t>HP:0003593</t>
+  </si>
+  <si>
+    <t>Infantile onset</t>
+  </si>
+  <si>
+    <t>HP:0011463</t>
+  </si>
+  <si>
+    <t>Childhood onset</t>
+  </si>
+  <si>
+    <t>HP:0003621</t>
+  </si>
+  <si>
+    <t>Juvenile onset</t>
+  </si>
+  <si>
     <t>HP:0410280</t>
   </si>
   <si>
     <t>Pediatric onset</t>
   </si>
   <si>
-    <t>HP:0003593</t>
-  </si>
-  <si>
-    <t>Infantile onset</t>
-  </si>
-  <si>
-    <t>HP:0003621</t>
-  </si>
-  <si>
-    <t>Juvenile onset</t>
-  </si>
-  <si>
-    <t>HP:0011463</t>
-  </si>
-  <si>
-    <t>Childhood onset</t>
-  </si>
-  <si>
-    <t>HP:0030674</t>
-  </si>
-  <si>
-    <t>Antenatal onset</t>
-  </si>
-  <si>
-    <t>HP:0011460</t>
-  </si>
-  <si>
-    <t>Embryonal onset</t>
-  </si>
-  <si>
-    <t>HP:0011461</t>
-  </si>
-  <si>
-    <t>Fetal onset</t>
-  </si>
-  <si>
-    <t>HP:0003577</t>
-  </si>
-  <si>
-    <t>Congenital onset</t>
-  </si>
-  <si>
-    <t>HP:0003623</t>
-  </si>
-  <si>
-    <t>Neonatal onset</t>
-  </si>
-  <si>
     <t>HP:0003581</t>
   </si>
   <si>
     <t>Adult onset</t>
   </si>
   <si>
+    <t>HP:0011462</t>
+  </si>
+  <si>
+    <t>Young adult onset</t>
+  </si>
+  <si>
     <t>HP:0003596</t>
   </si>
   <si>
     <t>Middle age onset</t>
-  </si>
-  <si>
-    <t>HP:0011462</t>
-  </si>
-  <si>
-    <t>Young adult onset</t>
   </si>
   <si>
     <t>HP:0003584</t>

--- a/ig/ValueSet-age-at-onset.xlsx
+++ b/ig/ValueSet-age-at-onset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -96,82 +96,52 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>HP:0030674</t>
+  </si>
+  <si>
+    <t>Antenatal</t>
+  </si>
+  <si>
     <t>HP:0003577</t>
   </si>
   <si>
-    <t>Congenital onset</t>
-  </si>
-  <si>
-    <t>HP:0030674</t>
-  </si>
-  <si>
-    <t>Antenatal onset</t>
-  </si>
-  <si>
-    <t>HP:0011460</t>
-  </si>
-  <si>
-    <t>Embryonal onset</t>
-  </si>
-  <si>
-    <t>HP:0011461</t>
-  </si>
-  <si>
-    <t>Fetal onset</t>
+    <t>Congenital</t>
+  </si>
+  <si>
+    <t>HP:0410280</t>
+  </si>
+  <si>
+    <t>Pediatric (&lt;= 15 years)</t>
   </si>
   <si>
     <t>HP:0003623</t>
   </si>
   <si>
-    <t>Neonatal onset</t>
+    <t>Neonatal (&lt; 28 days)</t>
   </si>
   <si>
     <t>HP:0003593</t>
   </si>
   <si>
-    <t>Infantile onset</t>
+    <t>Infantile (&gt;= 28 days and &lt; 1 year)</t>
   </si>
   <si>
     <t>HP:0011463</t>
   </si>
   <si>
-    <t>Childhood onset</t>
+    <t>Childhood (&gt;= 1 year and &lt; 5 years)</t>
   </si>
   <si>
     <t>HP:0003621</t>
   </si>
   <si>
-    <t>Juvenile onset</t>
-  </si>
-  <si>
-    <t>HP:0410280</t>
-  </si>
-  <si>
-    <t>Pediatric onset</t>
+    <t xml:space="preserve">Juvenile </t>
   </si>
   <si>
     <t>HP:0003581</t>
   </si>
   <si>
-    <t>Adult onset</t>
-  </si>
-  <si>
-    <t>HP:0011462</t>
-  </si>
-  <si>
-    <t>Young adult onset</t>
-  </si>
-  <si>
-    <t>HP:0003596</t>
-  </si>
-  <si>
-    <t>Middle age onset</t>
-  </si>
-  <si>
-    <t>HP:0003584</t>
-  </si>
-  <si>
-    <t>Late onset</t>
+    <t>Adult (&gt;= 16 years)</t>
   </si>
   <si>
     <t/>
@@ -302,10 +272,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -439,7 +409,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,55 +496,15 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ValueSet-age-at-onset.xlsx
+++ b/ig/ValueSet-age-at-onset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -108,12 +108,6 @@
     <t>Congenital</t>
   </si>
   <si>
-    <t>HP:0410280</t>
-  </si>
-  <si>
-    <t>Pediatric (&lt;= 15 years)</t>
-  </si>
-  <si>
     <t>HP:0003623</t>
   </si>
   <si>
@@ -135,13 +129,25 @@
     <t>HP:0003621</t>
   </si>
   <si>
-    <t xml:space="preserve">Juvenile </t>
-  </si>
-  <si>
-    <t>HP:0003581</t>
-  </si>
-  <si>
-    <t>Adult (&gt;= 16 years)</t>
+    <t>Juvenile (&gt;= 5 years and &lt; 16 years)</t>
+  </si>
+  <si>
+    <t>HP:0011462</t>
+  </si>
+  <si>
+    <t>Young Adult (&gt;= 16 years and &lt; 40 years)</t>
+  </si>
+  <si>
+    <t>HP:0003596</t>
+  </si>
+  <si>
+    <t>Middle Age (&gt;= 40 years and &lt; 60 years)</t>
+  </si>
+  <si>
+    <t>HP:0003584</t>
+  </si>
+  <si>
+    <t>Senior (&gt;= 60 years)</t>
   </si>
   <si>
     <t/>
@@ -409,7 +415,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,15 +502,23 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ValueSet-age-at-onset.xlsx
+++ b/ig/ValueSet-age-at-onset.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Cqgc (mailto:support@ferlab.bio)</t>
   </si>
   <si>
     <t>Description</t>
